--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Tolliver.Fall.120420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Tolliver.Fall.120420.xlsx_with_dialog_acts.xlsx
@@ -685,12 +685,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2289,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3045,12 +3045,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3465,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4473,12 +4473,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4939,12 +4939,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4981,12 +4981,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5107,12 +5107,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5233,12 +5233,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5275,12 +5275,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5359,12 +5359,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5573,12 +5573,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5825,12 +5825,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6581,12 +6581,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6833,12 +6833,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6959,12 +6959,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7127,12 +7127,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7589,12 +7589,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7925,12 +7925,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8009,12 +8009,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8471,12 +8471,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9017,12 +9017,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9269,12 +9269,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9353,12 +9353,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10029,12 +10029,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10785,12 +10785,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10827,12 +10827,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11457,12 +11457,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11499,12 +11499,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11835,12 +11835,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12759,12 +12759,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13159,12 +13159,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13443,12 +13443,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13643,12 +13643,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13803,12 +13803,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13923,12 +13923,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14643,12 +14643,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14963,12 +14963,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15679,12 +15679,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15959,12 +15959,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16243,12 +16243,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16841,12 +16841,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17081,12 +17081,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17361,12 +17361,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17401,12 +17401,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18279,12 +18279,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18359,12 +18359,12 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
